--- a/data/label_data/标签总纲.xlsx
+++ b/data/label_data/标签总纲.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79">
   <si>
     <t>标签描述</t>
   </si>
@@ -162,6 +162,99 @@
   </si>
   <si>
     <t>课程均值成绩和方差结合计算</t>
+  </si>
+  <si>
+    <t>消费水平</t>
+  </si>
+  <si>
+    <t>校园卡记录.csv</t>
+  </si>
+  <si>
+    <t>消费额/天的众数（激活函数）</t>
+  </si>
+  <si>
+    <t>评价学生对象消费水平（去除其他异常影响，如带饭、代刷、分窗口等）</t>
+  </si>
+  <si>
+    <t>消费习惯</t>
+  </si>
+  <si>
+    <t>消费额/天的方差（去除寒暑假）、消费地点、充值数额</t>
+  </si>
+  <si>
+    <t>评价学生对象消费的习惯是否稳定</t>
+  </si>
+  <si>
+    <t>生活习惯</t>
+  </si>
+  <si>
+    <t>丢失次数/补办次数/电控消费/解挂等</t>
+  </si>
+  <si>
+    <t>评价学生在寝室角色</t>
+  </si>
+  <si>
+    <t>学习习惯</t>
+  </si>
+  <si>
+    <t>假后首次刷卡时间/每日早餐/回寝室时间</t>
+  </si>
+  <si>
+    <t>评价学生学习的积极程度</t>
+  </si>
+  <si>
+    <t>生活健康程度</t>
+  </si>
+  <si>
+    <t>水控消费/平均消费与人均消费的比较/出回宿舍的时间等</t>
+  </si>
+  <si>
+    <t>评价学生的生活健康程度</t>
+  </si>
+  <si>
+    <t>消费异常终止</t>
+  </si>
+  <si>
+    <t>分析刷卡数量的走势</t>
+  </si>
+  <si>
+    <t>检测学生是否发生意外</t>
+  </si>
+  <si>
+    <t>消费异常攀高</t>
+  </si>
+  <si>
+    <t>检测校园卡的消费额度</t>
+  </si>
+  <si>
+    <t>检测学生的学生卡是否出现被盗刷等情况</t>
+  </si>
+  <si>
+    <t>消费频率异常</t>
+  </si>
+  <si>
+    <t>分析学生每日刷卡次数与全体次数的差距</t>
+  </si>
+  <si>
+    <t>判断学生是否长居寝室</t>
+  </si>
+  <si>
+    <t>学生圈子</t>
+  </si>
+  <si>
+    <t>检测学生校园卡的消费时间、地点聚类情况</t>
+  </si>
+  <si>
+    <t>判断学生圈子、检测离群孤僻学生</t>
+  </si>
+  <si>
+    <t>消费时间、地点异常</t>
+  </si>
+  <si>
+    <t>监测食堂等地点不同学生的消费间隔及连续性</t>
+  </si>
+  <si>
+    <t>优化校园资源分布：调整食堂、浴室等资源分布及提供时间</t>
   </si>
 </sst>
 </file>
@@ -169,16 +262,144 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -189,90 +410,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -285,52 +424,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -347,49 +440,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,7 +578,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,13 +590,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,18 +608,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -455,79 +620,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,10 +634,51 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -582,35 +716,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -623,21 +731,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -646,10 +739,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -658,146 +751,143 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -813,23 +903,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1156,45 +1237,45 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="30.5833333333333" style="4" customWidth="1"/>
-    <col min="2" max="2" width="13.0833333333333" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.8333333333333" style="5" customWidth="1"/>
-    <col min="4" max="4" width="35.9166666666667" style="4" customWidth="1"/>
-    <col min="5" max="5" width="20.6666666666667" style="5" customWidth="1"/>
-    <col min="6" max="6" width="36.5833333333333" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="30.5833333333333" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.0833333333333" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16.8333333333333" style="4" customWidth="1"/>
+    <col min="4" max="4" width="35.9166666666667" style="3" customWidth="1"/>
+    <col min="5" max="5" width="20.6666666666667" style="4" customWidth="1"/>
+    <col min="6" max="6" width="36.5833333333333" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:6">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1">
@@ -1203,18 +1284,18 @@
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1223,200 +1304,403 @@
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" ht="14" customHeight="1" spans="1:6">
-      <c r="A5" s="8" t="s">
+    <row r="5" s="1" customFormat="1" ht="14" customHeight="1" spans="1:6">
+      <c r="A5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>6</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" spans="1:6">
-      <c r="A7" s="8" t="s">
+    <row r="7" s="1" customFormat="1" spans="1:6">
+      <c r="A7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>1</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>1</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" s="3" customFormat="1" spans="1:6">
-      <c r="A11" s="11" t="s">
+    <row r="11" s="2" customFormat="1" spans="1:6">
+      <c r="A11" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>12</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="8" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>1</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="4" t="s">
         <v>9</v>
       </c>
     </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="9">
+        <v>1</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="9">
+        <v>1</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="9">
+        <v>1</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="9">
+        <v>1</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="9">
+        <v>1</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="9">
+        <v>1</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="9">
+        <v>1</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="9">
+        <v>1</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="9">
+        <v>1</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="9">
+        <v>1</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7 E1:E6 E8:E65536">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7 E1:E6 E8:E13 E24:E65535">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E14 E18 E19 E20 E21 E22 E23 E15:E17">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509722222222222" footer="0.509722222222222"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509027777777778" footer="0.509027777777778"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
 </worksheet>
@@ -1433,7 +1717,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509722222222222" footer="0.509722222222222"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509027777777778" footer="0.509027777777778"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
 </worksheet>
@@ -1450,7 +1734,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509722222222222" footer="0.509722222222222"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509027777777778" footer="0.509027777777778"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
 </worksheet>

--- a/data/label_data/标签总纲.xlsx
+++ b/data/label_data/标签总纲.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19100" windowHeight="8690"/>
+    <workbookView windowWidth="19100" windowHeight="8280"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -262,10 +262,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -275,7 +275,143 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -288,142 +424,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -440,13 +440,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,169 +590,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -634,17 +634,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -653,32 +647,15 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -716,18 +693,41 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -739,10 +739,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -751,137 +751,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -901,9 +901,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1240,7 +1237,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -1354,23 +1351,23 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="3" t="s">
+    <row r="6" s="1" customFormat="1" spans="1:6">
+      <c r="A6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1455,7 +1452,7 @@
       </c>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:6">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>42</v>
       </c>
       <c r="B11" s="2">
@@ -1464,13 +1461,13 @@
       <c r="C11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="7" t="s">
         <v>44</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="7" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1492,211 +1489,208 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="8">
         <v>1</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="8" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="8">
         <v>1</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="8" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="8">
         <v>1</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="8" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="8">
         <v>1</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="8" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="8">
         <v>1</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="8" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="8">
         <v>1</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="8" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="8">
         <v>1</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="8" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="8">
         <v>1</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="8" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="8">
         <v>1</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="F22" s="8" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="8">
         <v>1</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="8" t="s">
         <v>78</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7 E1:E6 E8:E13 E24:E65535">
-      <formula1>"是,否"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E14 E18 E19 E20 E21 E22 E23 E15:E17">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7 E14 E18 E19 E20 E21 E22 E23 E1:E6 E8:E13 E15:E17 E24:E65535">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>

--- a/data/label_data/标签总纲.xlsx
+++ b/data/label_data/标签总纲.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80">
   <si>
     <t>标签描述</t>
   </si>
@@ -129,6 +129,9 @@
   </si>
   <si>
     <t>课程标签</t>
+  </si>
+  <si>
+    <t>N=50,n=1</t>
   </si>
   <si>
     <t>类似图书标签</t>
@@ -262,9 +265,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -275,14 +278,97 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -297,19 +383,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -331,99 +427,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -440,187 +443,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -634,20 +637,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -661,17 +661,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -691,32 +687,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -731,6 +701,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -739,10 +742,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -751,133 +754,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1237,17 +1240,17 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="30.5833333333333" style="3" customWidth="1"/>
+    <col min="1" max="1" width="34.75" style="3" customWidth="1"/>
     <col min="2" max="2" width="13.0833333333333" style="4" customWidth="1"/>
     <col min="3" max="3" width="16.8333333333333" style="4" customWidth="1"/>
-    <col min="4" max="4" width="35.9166666666667" style="3" customWidth="1"/>
+    <col min="4" max="4" width="54.25" style="3" customWidth="1"/>
     <col min="5" max="5" width="20.6666666666667" style="4" customWidth="1"/>
-    <col min="6" max="6" width="36.5833333333333" style="3" customWidth="1"/>
+    <col min="6" max="6" width="71.1666666666667" style="3" customWidth="1"/>
     <col min="7" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
@@ -1411,29 +1414,29 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="3" t="s">
+    <row r="9" s="1" customFormat="1" spans="1:6">
+      <c r="A9" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="4" t="s">
+      <c r="B9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="4" t="s">
+      <c r="D9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>38</v>
+      <c r="F9" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B10" s="4">
         <v>1</v>
@@ -1442,38 +1445,38 @@
         <v>33</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:6">
       <c r="A11" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B11" s="2">
         <v>12</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B12" s="4">
         <v>1</v>
@@ -1482,7 +1485,7 @@
         <v>33</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>9</v>
@@ -1490,202 +1493,202 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B14" s="8">
         <v>1</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>9</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B15" s="8">
         <v>1</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>9</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B16" s="8">
         <v>1</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>9</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B17" s="8">
         <v>1</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>9</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B18" s="8">
         <v>1</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>9</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B19" s="8">
         <v>1</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>9</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B20" s="8">
         <v>1</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>9</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B21" s="8">
         <v>1</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>9</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B22" s="8">
         <v>1</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>19</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B23" s="8">
         <v>1</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>9</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/data/label_data/标签总纲.xlsx
+++ b/data/label_data/标签总纲.xlsx
@@ -16,7 +16,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81">
+  <si>
+    <t>蓝色：已完成；黄色：完成，但认为有问题；白色：未完成</t>
+  </si>
   <si>
     <t>标签描述</t>
   </si>
@@ -265,16 +268,36 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -284,8 +307,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -299,30 +367,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -336,6 +391,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -352,13 +429,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -366,69 +436,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -443,31 +452,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,13 +620,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,133 +638,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -634,6 +649,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -648,15 +687,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -687,6 +717,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -710,30 +749,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -742,10 +757,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -754,143 +769,146 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -900,11 +918,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1237,463 +1261,468 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="34.75" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.0833333333333" style="4" customWidth="1"/>
-    <col min="3" max="3" width="16.8333333333333" style="4" customWidth="1"/>
-    <col min="4" max="4" width="54.25" style="3" customWidth="1"/>
-    <col min="5" max="5" width="20.6666666666667" style="4" customWidth="1"/>
-    <col min="6" max="6" width="71.1666666666667" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="34.75" style="4" customWidth="1"/>
+    <col min="2" max="2" width="13.0833333333333" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.8333333333333" style="5" customWidth="1"/>
+    <col min="4" max="4" width="54.25" style="4" customWidth="1"/>
+    <col min="5" max="5" width="20.6666666666667" style="5" customWidth="1"/>
+    <col min="6" max="6" width="71.1666666666667" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:6">
-      <c r="A2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1">
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:6">
+      <c r="A3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A3" s="5" t="s">
+      <c r="F3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="1" t="s">
+    </row>
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="5" t="s">
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="3" t="s">
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="4" t="s">
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="C5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="E5" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="14" customHeight="1" spans="1:6">
-      <c r="A5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="1">
+    </row>
+    <row r="6" s="1" customFormat="1" ht="14" customHeight="1" spans="1:6">
+      <c r="A6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="1">
         <v>6</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="C6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="6" t="s">
+      <c r="D6" s="7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:6">
-      <c r="A6" s="5" t="s">
+      <c r="E6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="1" t="s">
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:6">
+      <c r="A7" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="B7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="6" t="s">
+      <c r="C7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:6">
-      <c r="A7" s="5" t="s">
+      <c r="E7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="1">
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:6">
+      <c r="A8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="1">
         <v>1</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="3" t="s">
+      <c r="C8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="E8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" spans="1:6">
+      <c r="A9" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="3" t="s">
+      <c r="D9" s="9" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="1:6">
-      <c r="A9" s="5" t="s">
+      <c r="E9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="1" t="s">
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:6">
+      <c r="A10" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="5" t="s">
+      <c r="B10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="5" t="s">
+      <c r="C10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="3" t="s">
+      <c r="E10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="4">
+    </row>
+    <row r="11" s="2" customFormat="1" spans="1:6">
+      <c r="A11" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="2">
         <v>1</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="3" t="s">
+      <c r="C11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="11" s="2" customFormat="1" spans="1:6">
-      <c r="A11" s="7" t="s">
+      <c r="E11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="2">
+    </row>
+    <row r="12" s="3" customFormat="1" spans="1:6">
+      <c r="A12" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="3">
         <v>12</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="7" t="s">
+      <c r="C12" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="7" t="s">
+      <c r="D12" s="10" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="3" t="s">
+      <c r="E12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="4">
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="5">
         <v>1</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="8" t="s">
+      <c r="C13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="8">
+      <c r="E13" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="11">
         <v>1</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="8" t="s">
+      <c r="C15" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="8" t="s">
+      <c r="D15" s="11" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="8" t="s">
+      <c r="E15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="8">
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="11">
         <v>1</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="8" t="s">
+      <c r="C16" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="11" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="8" t="s">
+      <c r="E16" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="8">
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="11">
         <v>1</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="8" t="s">
+      <c r="C17" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="11" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="8" t="s">
+      <c r="E17" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B17" s="8">
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="11">
         <v>1</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" s="8" t="s">
+      <c r="C18" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="11" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="8" t="s">
+      <c r="E18" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="8">
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="11">
         <v>1</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="8" t="s">
+      <c r="C19" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="11" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="8" t="s">
+      <c r="E19" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B19" s="8">
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="11">
         <v>1</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="8" t="s">
+      <c r="C20" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="11" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="8" t="s">
+      <c r="E20" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="8">
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="11">
         <v>1</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="8" t="s">
+      <c r="C21" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="11" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="8" t="s">
+      <c r="E21" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="B21" s="8">
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="11">
         <v>1</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="8" t="s">
+      <c r="C22" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="11" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="8" t="s">
+      <c r="E22" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="B22" s="8">
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" s="11">
         <v>1</v>
       </c>
-      <c r="C22" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" s="8" t="s">
+      <c r="C23" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="11" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="8" t="s">
+      <c r="E23" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="B23" s="8">
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" s="11">
         <v>1</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" s="8" t="s">
+      <c r="C24" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="11" t="s">
         <v>79</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7 E14 E18 E19 E20 E21 E22 E23 E1:E6 E8:E13 E15:E17 E24:E65535">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8 E15 E19 E20 E21 E22 E23 E24 E2:E7 E9:E14 E16:E18 E25:E65536">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>

--- a/data/label_data/标签总纲.xlsx
+++ b/data/label_data/标签总纲.xlsx
@@ -268,10 +268,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -287,7 +287,106 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -295,13 +394,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -323,91 +415,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -428,16 +436,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -452,7 +452,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,181 +596,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -649,6 +643,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -676,17 +709,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -698,30 +725,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -740,15 +743,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -757,158 +751,155 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -926,9 +917,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1264,47 +1252,47 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="34.75" style="4" customWidth="1"/>
-    <col min="2" max="2" width="13.0833333333333" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.8333333333333" style="5" customWidth="1"/>
-    <col min="4" max="4" width="54.25" style="4" customWidth="1"/>
-    <col min="5" max="5" width="20.6666666666667" style="5" customWidth="1"/>
-    <col min="6" max="6" width="71.1666666666667" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="34.75" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.0833333333333" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16.8333333333333" style="4" customWidth="1"/>
+    <col min="4" max="4" width="54.25" style="3" customWidth="1"/>
+    <col min="5" max="5" width="20.6666666666667" style="4" customWidth="1"/>
+    <col min="6" max="6" width="71.1666666666667" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:6">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="1">
@@ -1313,18 +1301,18 @@
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1333,38 +1321,38 @@
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="14" customHeight="1" spans="1:6">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="1">
@@ -1373,18 +1361,18 @@
       <c r="C6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>24</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="7" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:6">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1393,18 +1381,18 @@
       <c r="C7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>28</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:6">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="1">
@@ -1413,7 +1401,7 @@
       <c r="C8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>31</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -1423,28 +1411,28 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" spans="1:6">
-      <c r="A9" s="9" t="s">
+    <row r="9" s="1" customFormat="1" spans="1:6">
+      <c r="A9" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:6">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1453,270 +1441,271 @@
       <c r="C10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="6" t="s">
         <v>39</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" s="2" customFormat="1" spans="1:6">
-      <c r="A11" s="9" t="s">
+    <row r="11" s="1" customFormat="1" spans="1:6">
+      <c r="A11" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>1</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" s="3" customFormat="1" spans="1:6">
-      <c r="A12" s="10" t="s">
+    <row r="12" s="2" customFormat="1" spans="1:6">
+      <c r="A12" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>12</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="4" t="s">
+    <row r="13" s="1" customFormat="1" spans="1:6">
+      <c r="A13" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="1">
         <v>1</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="F13" s="6"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="9">
         <v>1</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="9">
         <v>1</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="9" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="9">
         <v>1</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="9" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="9">
         <v>1</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="F18" s="9" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B19" s="9">
         <v>1</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="F19" s="9" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="9">
         <v>1</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="F20" s="9" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B21" s="11">
+      <c r="B21" s="9">
         <v>1</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="11" t="s">
+      <c r="F21" s="9" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B22" s="9">
         <v>1</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="F22" s="9" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B23" s="11">
+      <c r="B23" s="9">
         <v>1</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="11" t="s">
+      <c r="F23" s="9" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B24" s="11">
+      <c r="B24" s="9">
         <v>1</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="E24" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F24" s="11" t="s">
+      <c r="F24" s="9" t="s">
         <v>80</v>
       </c>
     </row>
